--- a/data/trans_camb/P74B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 8,4</t>
+          <t>-4,65; 8,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 15,82</t>
+          <t>0,21; 15,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -9,63</t>
+          <t>-52,72; -9,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,34; -7,28</t>
+          <t>-49,84; -7,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 9,72</t>
+          <t>-6,87; 9,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 16,56</t>
+          <t>-0,31; 17,07</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 187,97</t>
+          <t>-50,64; 184,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 322,81</t>
+          <t>-5,19; 308,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,07; -14,31</t>
+          <t>-58,27; -12,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,09; -11,26</t>
+          <t>-55,44; -10,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 71,97</t>
+          <t>-35,11; 76,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 122,48</t>
+          <t>-3,0; 131,97</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 12,79</t>
+          <t>-1,36; 12,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 15,2</t>
+          <t>1,04; 14,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 13,45</t>
+          <t>-38,74; 13,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-51,87; -0,81</t>
+          <t>-54,45; 1,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 15,88</t>
+          <t>-1,5; 14,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 13,67</t>
+          <t>-2,17; 13,97</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 336,29</t>
+          <t>-24,91; 358,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 395,25</t>
+          <t>3,34; 377,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 23,97</t>
+          <t>-46,09; 26,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,73; -3,93</t>
+          <t>-66,99; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 169,45</t>
+          <t>-9,76; 144,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 143,47</t>
+          <t>-11,57; 135,89</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 14,5</t>
+          <t>4,37; 14,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 13,73</t>
+          <t>4,26; 13,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 5,66</t>
+          <t>-32,47; 5,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 9,91</t>
+          <t>-31,89; 8,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 16,86</t>
+          <t>5,62; 16,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,81</t>
+          <t>4,3; 15,75</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,84; 563,37</t>
+          <t>68,7; 577,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,46; 564,22</t>
+          <t>55,56; 555,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 7,71</t>
+          <t>-36,79; 8,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 13,56</t>
+          <t>-36,07; 14,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,07; 203,59</t>
+          <t>40,24; 196,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,87; 195,66</t>
+          <t>29,46; 188,62</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,57</t>
+          <t>-0,83; 6,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,06</t>
+          <t>-1,76; 4,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-37,31; -14,59</t>
+          <t>-37,47; -15,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,54; -10,12</t>
+          <t>-31,8; -11,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,84</t>
+          <t>-2,84; 5,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,93</t>
+          <t>-2,62; 6,01</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 86,8</t>
+          <t>-8,6; 83,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 68,27</t>
+          <t>-16,42; 65,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,84; -20,73</t>
+          <t>-46,95; -21,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -14,53</t>
+          <t>-40,13; -16,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 33,75</t>
+          <t>-13,62; 33,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 34,7</t>
+          <t>-12,69; 35,4</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 15,83</t>
+          <t>3,1; 16,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 11,32</t>
+          <t>-0,17; 11,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-24,33; -3,82</t>
+          <t>-23,06; -2,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-34,14; -13,27</t>
+          <t>-33,62; -11,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 14,37</t>
+          <t>-0,42; 14,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 3,36</t>
+          <t>-10,7; 3,32</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,44; 312,57</t>
+          <t>27,04; 378,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 226,22</t>
+          <t>-4,22; 254,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,79; -5,63</t>
+          <t>-29,15; -4,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,78; -19,75</t>
+          <t>-41,62; -17,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 47,82</t>
+          <t>-1,01; 46,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 11,09</t>
+          <t>-26,55; 10,94</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,99</t>
+          <t>-7,59; 2,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 2,13</t>
+          <t>-8,66; 1,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 2,61</t>
+          <t>-7,62; 2,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 0,43</t>
+          <t>-10,43; 0,42</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 3,5</t>
+          <t>-8,33; 3,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 2,45</t>
+          <t>-9,67; 1,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 2,97</t>
+          <t>-8,43; 3,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 0,42</t>
+          <t>-11,48; 0,39</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,34</t>
+          <t>2,85; 7,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,13</t>
+          <t>2,65; 7,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -10,3</t>
+          <t>-19,37; -10,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -12,14</t>
+          <t>-21,45; -12,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,12</t>
+          <t>1,55; 7,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,35</t>
+          <t>0,46; 6,47</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>30,6; 110,56</t>
+          <t>34,46; 117,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>29,36; 108,12</t>
+          <t>29,94; 112,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,06; -13,01</t>
+          <t>-22,9; -12,91</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -15,01</t>
+          <t>-25,45; -15,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,12; 25,46</t>
+          <t>4,94; 26,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,41; 21,9</t>
+          <t>1,2; 22,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
